--- a/backups.xlsx
+++ b/backups.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14700" yWindow="460" windowWidth="37440" windowHeight="22380" tabRatio="500"/>
+    <workbookView xWindow="11980" yWindow="460" windowWidth="24720" windowHeight="22380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -686,11 +686,11 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -971,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1667,11 +1667,11 @@
       </c>
     </row>
     <row r="19" spans="1:23" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -1888,59 +1888,59 @@
       <c r="A25" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17" t="s">
+      <c r="B25" s="16"/>
+      <c r="C25" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="17"/>
-      <c r="V25" s="17"/>
-      <c r="W25" s="17"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="16"/>
     </row>
     <row r="26" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17" t="s">
+      <c r="B26" s="16"/>
+      <c r="C26" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
-      <c r="U26" s="17"/>
-      <c r="V26" s="17"/>
-      <c r="W26" s="17"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
     </row>
     <row r="27" spans="1:23" ht="64" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
